--- a/PackageNewAccountJira.xlsx
+++ b/PackageNewAccountJira.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Needed to reject it</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,7 +571,7 @@
     <col min="7" max="7" width="127.28515625" customWidth="1"/>
     <col min="8" max="8" width="93.5703125" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -748,6 +751,9 @@
       <c r="I9" t="s">
         <v>55</v>
       </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:11" hidden="1">
       <c r="E10" t="s">
@@ -826,6 +832,9 @@
       </c>
       <c r="I14" t="s">
         <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1">
